--- a/data/4-1_1-4_mc_.xlsx
+++ b/data/4-1_1-4_mc_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13094066-31A5-AB4E-905C-EA2424C19684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC47134-35D1-8F4C-B1A3-8FAB2380A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D7EEDDD2-0E59-1241-877B-B4E6FDA01C86}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{D7EEDDD2-0E59-1241-877B-B4E6FDA01C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
